--- a/potentiometer/expPotReadings.xlsx
+++ b/potentiometer/expPotReadings.xlsx
@@ -24,15 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>right potentiometer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>cm</t>
   </si>
   <si>
     <t>pot reading</t>
+  </si>
+  <si>
+    <t>red potentiometer</t>
+  </si>
+  <si>
+    <t>yellow potentiometer</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>milliseconds</t>
+  </si>
+  <si>
+    <t>red pot reading</t>
+  </si>
+  <si>
+    <t>yellow potentiometer 2</t>
+  </si>
+  <si>
+    <t>red potentiometer 2</t>
   </si>
 </sst>
 </file>
@@ -102,6 +120,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>yellow pot reading vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> cm</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -143,11 +196,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pot reading</c:v>
+                  <c:v>cm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -174,88 +227,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.9157917760279962E-2"/>
-                  <c:y val="0.21023622047244095"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$23</c:f>
+              <c:f>Sheet1!$K$3:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -263,71 +237,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5</c:v>
+                  <c:v>807</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5</c:v>
+                  <c:v>838</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$23</c:f>
+              <c:f>Sheet1!$L$3:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -335,64 +309,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>242</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>388</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>537</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>666</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>786</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>827</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>850</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>869</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>888</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>906</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>925</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>943</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>961</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>979</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>996</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1015</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1023</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,11 +381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="541329120"/>
-        <c:axId val="541328032"/>
+        <c:axId val="638012608"/>
+        <c:axId val="638022944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="541329120"/>
+        <c:axId val="638012608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,12 +442,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541328032"/>
+        <c:crossAx val="638022944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="541328032"/>
+        <c:axId val="638022944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +504,1845 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541329120"/>
+        <c:crossAx val="638012608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>red pot reading vs cm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638016416"/>
+        <c:axId val="638014240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="638016416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638014240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638014240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638016416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>red potentiometer reading vs distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0469816272965886E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5564960629921258E-2"/>
+                  <c:y val="-4.8455818022747156E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>829</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2.94985E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8997000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8997000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.117994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41297899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70796400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0324475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3274325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6519159999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.946901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2713844999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5663695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8613545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1563395000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5103214999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8053064999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1002915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3952764999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.71976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0147449999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3392284999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6342134999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.9586969999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2536819999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5486669999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8436519999999987</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1681354999999991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4926189999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.7876039999999991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0825889999999987</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4070724999999982</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.7020574999999987</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9970424999999992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3215259999999986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.6755079999999989</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.9999914999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="639635856"/>
+        <c:axId val="639638032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="639635856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639638032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="639638032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639635856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Red pot 2 - distance vs reading</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638027296"/>
+        <c:axId val="638012064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="638027296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638012064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638012064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638027296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>yellow</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> pot 2 - distance vs reading</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$9:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$9:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="838865440"/>
+        <c:axId val="838864352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="838865440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838864352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="838864352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838865440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -619,6 +2431,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1135,24 +3107,2088 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1162,6 +5198,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1433,197 +5589,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B23"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.5</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>21</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1.5</v>
-      </c>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>108</v>
       </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>144</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>242</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>262</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2.5</v>
-      </c>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>388</v>
       </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="K8">
+        <v>386</v>
+      </c>
+      <c r="L8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>537</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>523</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>575</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3.5</v>
-      </c>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>666</v>
       </c>
+      <c r="C10">
+        <v>3.5</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+      <c r="F10">
+        <v>697</v>
+      </c>
+      <c r="K10">
+        <v>653</v>
+      </c>
+      <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="N10">
+        <v>3.5</v>
+      </c>
+      <c r="O10">
+        <v>739</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>4</v>
-      </c>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>786</v>
       </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>783</v>
+      </c>
+      <c r="K11">
+        <v>715</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>810</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>4.5</v>
-      </c>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>827</v>
       </c>
+      <c r="C12">
+        <v>4.5</v>
+      </c>
+      <c r="E12">
+        <v>4.5</v>
+      </c>
+      <c r="F12">
+        <v>822</v>
+      </c>
+      <c r="K12">
+        <v>738</v>
+      </c>
+      <c r="L12">
+        <v>4.5</v>
+      </c>
+      <c r="N12">
+        <v>4.5</v>
+      </c>
+      <c r="O12">
+        <v>837</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>850</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>848</v>
+      </c>
+      <c r="K13">
+        <v>759</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>859</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5.5</v>
-      </c>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>869</v>
       </c>
+      <c r="C14">
+        <v>5.5</v>
+      </c>
+      <c r="E14">
+        <v>5.5</v>
+      </c>
+      <c r="F14">
+        <v>867</v>
+      </c>
+      <c r="K14">
+        <v>775</v>
+      </c>
+      <c r="L14">
+        <v>5.5</v>
+      </c>
+      <c r="N14">
+        <v>5.5</v>
+      </c>
+      <c r="O14">
+        <v>876</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>6</v>
-      </c>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>888</v>
       </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>886</v>
+      </c>
+      <c r="K15">
+        <v>793</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>899</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>6.5</v>
-      </c>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>906</v>
       </c>
+      <c r="C16">
+        <v>6.5</v>
+      </c>
+      <c r="E16">
+        <v>6.5</v>
+      </c>
+      <c r="F16">
+        <v>905</v>
+      </c>
+      <c r="K16">
+        <v>807</v>
+      </c>
+      <c r="L16">
+        <v>6.5</v>
+      </c>
+      <c r="N16">
+        <v>6.5</v>
+      </c>
+      <c r="O16">
+        <v>914</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>925</v>
       </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>921</v>
+      </c>
+      <c r="K17">
+        <v>823</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>930</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>7.5</v>
-      </c>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>943</v>
       </c>
+      <c r="C18">
+        <v>7.5</v>
+      </c>
+      <c r="E18">
+        <v>7.5</v>
+      </c>
+      <c r="F18">
+        <v>939</v>
+      </c>
+      <c r="K18">
+        <v>838</v>
+      </c>
+      <c r="L18">
+        <v>7.5</v>
+      </c>
+      <c r="N18">
+        <v>7.5</v>
+      </c>
+      <c r="O18">
+        <v>946</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>8</v>
-      </c>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>961</v>
       </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>955</v>
+      </c>
+      <c r="K19">
+        <v>854</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <v>968</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>8.5</v>
-      </c>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>979</v>
       </c>
+      <c r="C20">
+        <v>8.5</v>
+      </c>
+      <c r="E20">
+        <v>8.5</v>
+      </c>
+      <c r="F20">
+        <v>973</v>
+      </c>
+      <c r="K20">
+        <v>870</v>
+      </c>
+      <c r="L20">
+        <v>8.5</v>
+      </c>
+      <c r="N20">
+        <v>8.5</v>
+      </c>
+      <c r="O20">
+        <v>985</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>9</v>
-      </c>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>996</v>
       </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>993</v>
+      </c>
+      <c r="K21">
+        <v>888</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>1006</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>9.5</v>
-      </c>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1015</v>
       </c>
+      <c r="C22">
+        <v>9.5</v>
+      </c>
+      <c r="E22">
+        <v>9.5</v>
+      </c>
+      <c r="F22">
+        <v>1009</v>
+      </c>
+      <c r="K22">
+        <v>902</v>
+      </c>
+      <c r="L22">
+        <v>9.5</v>
+      </c>
+      <c r="N22">
+        <v>9.5</v>
+      </c>
+      <c r="O22">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>10</v>
-      </c>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1023</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1023</v>
+      </c>
+      <c r="K23">
+        <v>905</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>701</v>
+      </c>
+      <c r="C27">
+        <v>3001</v>
+      </c>
+      <c r="E27">
+        <v>701</v>
+      </c>
+      <c r="F27">
+        <f>(C28-C27)*0.0294985</f>
+        <v>2.94985E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>702</v>
+      </c>
+      <c r="C28">
+        <v>3002</v>
+      </c>
+      <c r="E28">
+        <v>702</v>
+      </c>
+      <c r="F28">
+        <f>(C29-C28)*0.0294985+F27</f>
+        <v>5.8997000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>702</v>
+      </c>
+      <c r="C29">
+        <v>3003</v>
+      </c>
+      <c r="E29">
+        <v>702</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F62" si="0">(C30-C29)*0.0294985+F28</f>
+        <v>5.8997000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>702</v>
+      </c>
+      <c r="C30">
+        <v>3003</v>
+      </c>
+      <c r="E30">
+        <v>702</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.117994</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>702</v>
+      </c>
+      <c r="C31">
+        <v>3005</v>
+      </c>
+      <c r="E31">
+        <v>702</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.41297899999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>702</v>
+      </c>
+      <c r="C32">
+        <v>3015</v>
+      </c>
+      <c r="E32">
+        <v>702</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.70796400000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>709</v>
+      </c>
+      <c r="C33">
+        <v>3025</v>
+      </c>
+      <c r="E33">
+        <v>709</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.0324475</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>722</v>
+      </c>
+      <c r="C34">
+        <v>3036</v>
+      </c>
+      <c r="E34">
+        <v>722</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.3274325</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>735</v>
+      </c>
+      <c r="C35">
+        <v>3046</v>
+      </c>
+      <c r="E35">
+        <v>735</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.6519159999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>747</v>
+      </c>
+      <c r="C36">
+        <v>3057</v>
+      </c>
+      <c r="E36">
+        <v>747</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.946901</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>758</v>
+      </c>
+      <c r="C37">
+        <v>3067</v>
+      </c>
+      <c r="E37">
+        <v>758</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2.2713844999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>770</v>
+      </c>
+      <c r="C38">
+        <v>3078</v>
+      </c>
+      <c r="E38">
+        <v>770</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>2.5663695</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>778</v>
+      </c>
+      <c r="C39">
+        <v>3088</v>
+      </c>
+      <c r="E39">
+        <v>778</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2.8613545</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>787</v>
+      </c>
+      <c r="C40">
+        <v>3098</v>
+      </c>
+      <c r="E40">
+        <v>787</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>3.1563395000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>795</v>
+      </c>
+      <c r="C41">
+        <v>3108</v>
+      </c>
+      <c r="E41">
+        <v>795</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>3.5103214999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>803</v>
+      </c>
+      <c r="C42">
+        <v>3120</v>
+      </c>
+      <c r="E42">
+        <v>803</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>3.8053064999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>812</v>
+      </c>
+      <c r="C43">
+        <v>3130</v>
+      </c>
+      <c r="E43">
+        <v>812</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>4.1002915</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>821</v>
+      </c>
+      <c r="C44">
+        <v>3140</v>
+      </c>
+      <c r="E44">
+        <v>821</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>4.3952764999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>829</v>
+      </c>
+      <c r="C45">
+        <v>3150</v>
+      </c>
+      <c r="E45">
+        <v>829</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>4.71976</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>838</v>
+      </c>
+      <c r="C46">
+        <v>3161</v>
+      </c>
+      <c r="E46">
+        <v>838</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>5.0147449999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>847</v>
+      </c>
+      <c r="C47">
+        <v>3171</v>
+      </c>
+      <c r="E47">
+        <v>847</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>5.3392284999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>854</v>
+      </c>
+      <c r="C48">
+        <v>3182</v>
+      </c>
+      <c r="E48">
+        <v>854</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>5.6342134999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>863</v>
+      </c>
+      <c r="C49">
+        <v>3192</v>
+      </c>
+      <c r="E49">
+        <v>863</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>5.9586969999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>872</v>
+      </c>
+      <c r="C50">
+        <v>3203</v>
+      </c>
+      <c r="E50">
+        <v>872</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>6.2536819999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>882</v>
+      </c>
+      <c r="C51">
+        <v>3213</v>
+      </c>
+      <c r="E51">
+        <v>882</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>6.5486669999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>894</v>
+      </c>
+      <c r="C52">
+        <v>3223</v>
+      </c>
+      <c r="E52">
+        <v>894</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>6.8436519999999987</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>905</v>
+      </c>
+      <c r="C53">
+        <v>3233</v>
+      </c>
+      <c r="E53">
+        <v>905</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>7.1681354999999991</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>917</v>
+      </c>
+      <c r="C54">
+        <v>3244</v>
+      </c>
+      <c r="E54">
+        <v>917</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>7.4926189999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>931</v>
+      </c>
+      <c r="C55">
+        <v>3255</v>
+      </c>
+      <c r="E55">
+        <v>931</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>7.7876039999999991</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>942</v>
+      </c>
+      <c r="C56">
+        <v>3265</v>
+      </c>
+      <c r="E56">
+        <v>942</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>8.0825889999999987</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>955</v>
+      </c>
+      <c r="C57">
+        <v>3275</v>
+      </c>
+      <c r="E57">
+        <v>955</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>8.4070724999999982</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>968</v>
+      </c>
+      <c r="C58">
+        <v>3286</v>
+      </c>
+      <c r="E58">
+        <v>968</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>8.7020574999999987</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>980</v>
+      </c>
+      <c r="C59">
+        <v>3296</v>
+      </c>
+      <c r="E59">
+        <v>980</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>8.9970424999999992</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>995</v>
+      </c>
+      <c r="C60">
+        <v>3306</v>
+      </c>
+      <c r="E60">
+        <v>995</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>9.3215259999999986</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1007</v>
+      </c>
+      <c r="C61">
+        <v>3317</v>
+      </c>
+      <c r="E61">
+        <v>1007</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>9.6755079999999989</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1020</v>
+      </c>
+      <c r="C62">
+        <v>3329</v>
+      </c>
+      <c r="E62">
+        <v>1020</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>9.9999914999999984</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1023</v>
+      </c>
+      <c r="C63">
+        <v>3340</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D49:D63" si="1">(C64-C63)*0.0294985</f>
+        <v>-98.524990000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>